--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2004.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2004.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155856240223875</v>
+        <v>0.9823903441429138</v>
       </c>
       <c r="B1">
-        <v>2.256225681858497</v>
+        <v>3.106423616409302</v>
       </c>
       <c r="C1">
-        <v>7.982840991726509</v>
+        <v>6.754115104675293</v>
       </c>
       <c r="D1">
-        <v>2.506268701505701</v>
+        <v>1.927229285240173</v>
       </c>
       <c r="E1">
-        <v>1.229092695586937</v>
+        <v>1.349624872207642</v>
       </c>
     </row>
   </sheetData>
